--- a/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
+++ b/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\6-RECLAMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906017D-FE84-4E92-B132-46FC20F9E574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD877A-88F2-40BA-937B-0449949FBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$8</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>LUPE AMPARO</t>
+  </si>
+  <si>
+    <t>BALCAZAR CORI</t>
+  </si>
+  <si>
+    <t>ANGELICA MARIA</t>
+  </si>
+  <si>
+    <t>BOLETA</t>
+  </si>
+  <si>
+    <t>Boleta indica 10 dias menos que tareo</t>
+  </si>
+  <si>
+    <t>SANCHEZ CABRERA</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44746</v>
       </c>
@@ -649,22 +667,67 @@
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>44747</v>
+      </c>
       <c r="B7" s="8">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>44007676</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>44747</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6">
+        <v>41996696</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A2:H8" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="7" day="5" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="AQUITUARI CALDERON"/>
+        <filter val="SANCHEZ CABRERA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
+++ b/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\6-RECLAMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFD877A-88F2-40BA-937B-0449949FBB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1DB8B-AA6A-4D12-9C2F-F3C17A60D210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>PILLACA RIVERA</t>
+  </si>
+  <si>
+    <t>CANDY VANESSA</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44747</v>
       </c>
@@ -718,16 +724,37 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>44751</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>73908404</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2022" month="7" day="5" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A2:H9" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="SANCHEZ CABRERA"/>
+        <filter val="PILLACA RIVERA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
+++ b/2-PERSONAL/----PENDIENTES/6-RECLAMOS/7. JULIO-2022 RECLAMO BONO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKM\2-PERSONAL\----PENDIENTES\6-RECLAMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1DB8B-AA6A-4D12-9C2F-F3C17A60D210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C4A493-C713-40A6-B82A-4D6F7C8B964B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$I$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>APELLIDO</t>
   </si>
@@ -126,6 +126,150 @@
   </si>
   <si>
     <t>CANDY VANESSA</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>GALARZA CASTRO</t>
+  </si>
+  <si>
+    <t>ALAYSKA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>RIVAS HUAMAN</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>RUIZ VALVERDE</t>
+  </si>
+  <si>
+    <t>FLOR DE MARIA</t>
+  </si>
+  <si>
+    <t>VILCHEZ RUIZ</t>
+  </si>
+  <si>
+    <t>PABLO AIMAN</t>
+  </si>
+  <si>
+    <t>CUNYA ODAR</t>
+  </si>
+  <si>
+    <t>JEFFERSON DANTE</t>
+  </si>
+  <si>
+    <t>HUAMANI CONDORI</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>PULLO ESCRIBA</t>
+  </si>
+  <si>
+    <t>VIRGINIA</t>
+  </si>
+  <si>
+    <t>AGUIRRE JULCAMANYAN</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>ALVAREZ CANALES</t>
+  </si>
+  <si>
+    <t>JENNY ISABEL</t>
+  </si>
+  <si>
+    <t>HUARI NAVARRO</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>LOAYZA VILLALOBOS</t>
+  </si>
+  <si>
+    <t>NICOLE</t>
+  </si>
+  <si>
+    <t>MARCIAL MOLINA</t>
+  </si>
+  <si>
+    <t>SARA MELISSA</t>
+  </si>
+  <si>
+    <t>MEDINA NAVARRO</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA</t>
+  </si>
+  <si>
+    <t>ANGIE RUBY</t>
+  </si>
+  <si>
+    <t>TORRES MARQUEZ</t>
+  </si>
+  <si>
+    <t>SANDRA PAOLA</t>
+  </si>
+  <si>
+    <t>YUPAN FRANCIA</t>
+  </si>
+  <si>
+    <t>DEYSI JANET</t>
+  </si>
+  <si>
+    <t>ZEVALLOS ZEVALLOS</t>
+  </si>
+  <si>
+    <t>MILAGROS RUBI</t>
+  </si>
+  <si>
+    <t>RUEDA VASQUEZ</t>
+  </si>
+  <si>
+    <t>DARLING</t>
+  </si>
+  <si>
+    <t>77138389</t>
+  </si>
+  <si>
+    <t>72565750</t>
+  </si>
+  <si>
+    <t>48104654</t>
+  </si>
+  <si>
+    <t>76770626</t>
+  </si>
+  <si>
+    <t>76286772</t>
+  </si>
+  <si>
+    <t>15443104</t>
+  </si>
+  <si>
+    <t>10814068</t>
+  </si>
+  <si>
+    <t>40821962</t>
+  </si>
+  <si>
+    <t>11/06/2022</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>27/06/2022</t>
+  </si>
+  <si>
+    <t>07897872</t>
   </si>
 </sst>
 </file>
@@ -170,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,11 +337,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -228,7 +409,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,37 +701,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -559,16 +750,19 @@
         <v>2</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44746</v>
       </c>
@@ -584,17 +778,18 @@
       <c r="E3" s="6">
         <v>45264150</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44746</v>
       </c>
@@ -610,17 +805,18 @@
       <c r="E4" s="6">
         <v>75447318</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44746</v>
       </c>
@@ -636,17 +832,18 @@
       <c r="E5" s="8">
         <v>74251412</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>44746</v>
       </c>
@@ -662,17 +859,18 @@
       <c r="E6" s="8">
         <v>80591175</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>44747</v>
       </c>
@@ -688,17 +886,18 @@
       <c r="E7" s="8">
         <v>44007676</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>44747</v>
       </c>
@@ -714,17 +913,18 @@
       <c r="E8" s="6">
         <v>41996696</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>44751</v>
       </c>
@@ -740,26 +940,441 @@
       <c r="E9" s="6">
         <v>73908404</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>42838328</v>
+      </c>
+      <c r="F19" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="8">
+        <v>75405875</v>
+      </c>
+      <c r="F20" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="8">
+        <v>42844263</v>
+      </c>
+      <c r="F21" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="8">
+        <v>47076588</v>
+      </c>
+      <c r="F22" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="8">
+        <v>72565751</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="8">
+        <v>44475835</v>
+      </c>
+      <c r="F24" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="8">
+        <v>44680303</v>
+      </c>
+      <c r="F25" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="8">
+        <v>76821346</v>
+      </c>
+      <c r="F26" s="7">
+        <v>44739</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>44758</v>
+      </c>
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8">
+        <v>75700600</v>
+      </c>
+      <c r="F27" s="7">
+        <v>44740</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H9" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="PILLACA RIVERA"/>
-      </filters>
+  <autoFilter ref="A2:I27" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
